--- a/app/Licenciatura_em_Ecologia_e_Conservacao_da_Biodiversidade_Terrestre.xlsx
+++ b/app/Licenciatura_em_Ecologia_e_Conservacao_da_Biodiversidade_Terrestre.xlsx
@@ -13,38 +13,34 @@
     <sheet name="20151258" sheetId="3" r:id="rId6"/>
     <sheet name="20151240" sheetId="4" r:id="rId7"/>
     <sheet name="20151243" sheetId="5" r:id="rId8"/>
-    <sheet name="20154561" sheetId="6" r:id="rId9"/>
-    <sheet name="20151249" sheetId="7" r:id="rId10"/>
-    <sheet name="20151250" sheetId="8" r:id="rId11"/>
-    <sheet name="20151246" sheetId="9" r:id="rId12"/>
-    <sheet name="20151269" sheetId="10" r:id="rId13"/>
-    <sheet name="20151261" sheetId="11" r:id="rId14"/>
-    <sheet name="20151248" sheetId="12" r:id="rId15"/>
-    <sheet name="20151254" sheetId="13" r:id="rId16"/>
-    <sheet name="20151256" sheetId="14" r:id="rId17"/>
-    <sheet name="20151267" sheetId="15" r:id="rId18"/>
-    <sheet name="20151266" sheetId="16" r:id="rId19"/>
-    <sheet name="20151260" sheetId="17" r:id="rId20"/>
-    <sheet name="20151262" sheetId="18" r:id="rId21"/>
-    <sheet name="20154414" sheetId="19" r:id="rId22"/>
-    <sheet name="20151244" sheetId="20" r:id="rId23"/>
-    <sheet name="20151257" sheetId="21" r:id="rId24"/>
-    <sheet name="20151242" sheetId="22" r:id="rId25"/>
-    <sheet name="20154415" sheetId="23" r:id="rId26"/>
-    <sheet name="20151253" sheetId="24" r:id="rId27"/>
-    <sheet name="20151252" sheetId="25" r:id="rId28"/>
-    <sheet name="20151241" sheetId="26" r:id="rId29"/>
-    <sheet name="20151259" sheetId="27" r:id="rId30"/>
-    <sheet name="20154562" sheetId="28" r:id="rId31"/>
-    <sheet name="20151247" sheetId="29" r:id="rId32"/>
-    <sheet name="20151263" sheetId="30" r:id="rId33"/>
-    <sheet name="20151255" sheetId="31" r:id="rId34"/>
-    <sheet name="20151265" sheetId="32" r:id="rId35"/>
-    <sheet name="20151268" sheetId="33" r:id="rId36"/>
-    <sheet name="20151264" sheetId="34" r:id="rId37"/>
-    <sheet name="20151245" sheetId="35" r:id="rId38"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId39"/>
-    <sheet name="Sheet3" sheetId="37" r:id="rId40"/>
+    <sheet name="20151249" sheetId="6" r:id="rId9"/>
+    <sheet name="20151250" sheetId="7" r:id="rId10"/>
+    <sheet name="20151246" sheetId="8" r:id="rId11"/>
+    <sheet name="20151269" sheetId="9" r:id="rId12"/>
+    <sheet name="20151261" sheetId="10" r:id="rId13"/>
+    <sheet name="20151248" sheetId="11" r:id="rId14"/>
+    <sheet name="20151254" sheetId="12" r:id="rId15"/>
+    <sheet name="20151256" sheetId="13" r:id="rId16"/>
+    <sheet name="20151267" sheetId="14" r:id="rId17"/>
+    <sheet name="20151266" sheetId="15" r:id="rId18"/>
+    <sheet name="20151260" sheetId="16" r:id="rId19"/>
+    <sheet name="20151262" sheetId="17" r:id="rId20"/>
+    <sheet name="20151244" sheetId="18" r:id="rId21"/>
+    <sheet name="20151257" sheetId="19" r:id="rId22"/>
+    <sheet name="20151242" sheetId="20" r:id="rId23"/>
+    <sheet name="20151253" sheetId="21" r:id="rId24"/>
+    <sheet name="20151252" sheetId="22" r:id="rId25"/>
+    <sheet name="20151241" sheetId="23" r:id="rId26"/>
+    <sheet name="20151259" sheetId="24" r:id="rId27"/>
+    <sheet name="20151247" sheetId="25" r:id="rId28"/>
+    <sheet name="20151263" sheetId="26" r:id="rId29"/>
+    <sheet name="20151255" sheetId="27" r:id="rId30"/>
+    <sheet name="20151265" sheetId="28" r:id="rId31"/>
+    <sheet name="20151268" sheetId="29" r:id="rId32"/>
+    <sheet name="20151264" sheetId="30" r:id="rId33"/>
+    <sheet name="20151245" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -52,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -201,9 +197,6 @@
     <t>Maria De Lurdes Mate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -240,9 +233,6 @@
     <t>Biatriz Duster</t>
   </si>
   <si>
-    <t>Distrito de Nhamatanda</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -270,9 +260,6 @@
     <t>Laurinda Lazaro Timba</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110102189128B</t>
   </si>
   <si>
@@ -297,9 +284,6 @@
     <t>LÍdia Francisco Gemo</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080102291545B</t>
   </si>
   <si>
@@ -309,15 +293,6 @@
     <t>Escola 29 de Setembro</t>
   </si>
   <si>
-    <t>Tamele</t>
-  </si>
-  <si>
-    <t>Abílio Raimundo</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Ringler</t>
   </si>
   <si>
@@ -333,9 +308,6 @@
     <t xml:space="preserve">Angelina Vasco Manjate </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110504753961A</t>
   </si>
   <si>
@@ -360,9 +332,6 @@
     <t>Arminda Abel</t>
   </si>
   <si>
-    <t>Distrito de Namacurra</t>
-  </si>
-  <si>
     <t>040101800470I</t>
   </si>
   <si>
@@ -387,9 +356,6 @@
     <t>FÁtima Victor</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>0401020399116S</t>
   </si>
   <si>
@@ -459,9 +425,6 @@
     <t>Amina Alide</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030101154897A</t>
   </si>
   <si>
@@ -486,9 +449,6 @@
     <t>Inacio Samuel Moiambo</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -513,9 +473,6 @@
     <t>Maria Maulele</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>100700962680I</t>
   </si>
   <si>
@@ -540,9 +497,6 @@
     <t xml:space="preserve">Maria Da C J Albino </t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -594,9 +548,6 @@
     <t>Rita Filipe Nhassengo</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>090101629429B</t>
   </si>
   <si>
@@ -621,9 +572,6 @@
     <t>Nalia Jorge</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100642659B</t>
   </si>
   <si>
@@ -633,12 +581,6 @@
     <t>Escola Josina Machel</t>
   </si>
   <si>
-    <t>Maluve</t>
-  </si>
-  <si>
-    <t>Amélia Simião</t>
-  </si>
-  <si>
     <t>Madovo</t>
   </si>
   <si>
@@ -654,9 +596,6 @@
     <t>Fernanda   Chirinzane</t>
   </si>
   <si>
-    <t>Distrito de Namaacha</t>
-  </si>
-  <si>
     <t>100801506439I</t>
   </si>
   <si>
@@ -708,12 +647,6 @@
     <t>+258840428660</t>
   </si>
   <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Arlindo Bernardo</t>
-  </si>
-  <si>
     <t>Ira</t>
   </si>
   <si>
@@ -799,12 +732,6 @@
   </si>
   <si>
     <t>Escola Secundaria da Matola</t>
-  </si>
-  <si>
-    <t>Cumbane</t>
-  </si>
-  <si>
-    <t>Rodolfo Justino</t>
   </si>
   <si>
     <t>Cossa</t>
@@ -2193,7 +2120,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151269</v>
+        <v>20151261</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2217,7 +2144,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2233,7 +2160,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2249,7 +2176,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2265,7 +2192,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2281,7 +2208,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2296,9 +2223,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2306,7 +2231,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2317,7 +2242,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2326,7 +2251,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2338,7 +2263,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2346,7 +2271,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2442,7 +2367,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2469,7 +2394,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2485,7 +2410,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2788,7 +2713,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151261</v>
+        <v>20151248</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2812,7 +2737,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2828,7 +2753,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2844,7 +2769,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2860,7 +2785,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2876,7 +2801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2891,9 +2816,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2901,7 +2824,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2912,7 +2835,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2921,7 +2844,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2933,7 +2856,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2941,7 +2864,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3037,7 +2960,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3064,7 +2987,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3080,7 +3003,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3383,7 +3306,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151248</v>
+        <v>20151254</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3407,7 +3330,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3423,7 +3346,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3439,7 +3362,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3455,7 +3378,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3471,7 +3394,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3486,9 +3409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>135</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3496,7 +3417,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3507,7 +3428,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3516,7 +3437,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3528,15 +3449,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>136</v>
+      <c r="H17" s="20">
+        <v>70184532</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3632,7 +3553,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3659,7 +3580,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3675,7 +3596,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3978,7 +3899,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151254</v>
+        <v>20151256</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4002,7 +3923,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4018,7 +3939,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4034,7 +3955,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4050,7 +3971,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4066,7 +3987,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4081,9 +4002,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4091,7 +4010,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4102,7 +4021,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4111,7 +4030,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4123,15 +4042,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>70184532</v>
+      <c r="H17" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4227,7 +4146,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4254,7 +4173,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4270,7 +4189,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4573,7 +4492,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151256</v>
+        <v>20151267</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4597,7 +4516,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4613,7 +4532,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4629,7 +4548,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4645,7 +4564,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4661,7 +4580,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4676,9 +4595,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4686,7 +4603,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4697,7 +4614,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4706,7 +4623,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4718,7 +4635,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4726,7 +4643,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4822,7 +4739,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4849,7 +4766,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4865,7 +4782,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5168,7 +5085,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151267</v>
+        <v>20151266</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5192,7 +5109,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5208,7 +5125,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5224,7 +5141,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5240,7 +5157,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5256,7 +5173,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5271,9 +5188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5281,7 +5196,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5292,7 +5207,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5301,7 +5216,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5313,7 +5228,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5321,7 +5236,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5417,7 +5332,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5444,7 +5359,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5460,7 +5375,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5763,7 +5678,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151266</v>
+        <v>20151260</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5787,7 +5702,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5803,7 +5718,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5819,7 +5734,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5835,7 +5750,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5851,7 +5766,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5866,9 +5781,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5876,7 +5789,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5887,7 +5800,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5896,7 +5809,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5908,7 +5821,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5916,7 +5829,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6012,7 +5925,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6039,7 +5952,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6055,7 +5968,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6358,7 +6271,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151260</v>
+        <v>20151262</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6382,7 +6295,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6398,7 +6311,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6414,7 +6327,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6430,7 +6343,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6446,7 +6359,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6461,9 +6374,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6471,7 +6382,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6482,7 +6393,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6491,7 +6402,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6503,7 +6414,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6511,7 +6422,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6607,7 +6518,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6634,7 +6545,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6650,7 +6561,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6953,7 +6864,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151262</v>
+        <v>20151244</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6977,7 +6888,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6993,7 +6904,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7009,7 +6920,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7025,7 +6936,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7041,7 +6952,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7056,9 +6967,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7066,7 +6975,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7077,7 +6986,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7086,7 +6995,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7098,7 +7007,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7106,7 +7015,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7202,7 +7111,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7229,7 +7138,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7245,7 +7154,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7496,7 +7405,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7546,7 +7457,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154414</v>
+        <v>20151257</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7570,7 +7481,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7586,7 +7497,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7601,7 +7512,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7615,7 +7528,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7629,7 +7544,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7650,7 +7567,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7659,14 +7578,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7676,13 +7599,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7777,7 +7704,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7803,7 +7730,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7817,7 +7746,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8222,9 +8153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8232,7 +8161,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8243,7 +8172,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8252,7 +8181,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8264,7 +8193,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8272,7 +8201,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8368,7 +8297,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8411,7 +8340,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8714,7 +8643,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151244</v>
+        <v>20151242</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8738,7 +8667,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8754,7 +8683,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8770,7 +8699,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8786,7 +8715,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8802,7 +8731,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8817,9 +8746,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8827,7 +8754,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8838,7 +8765,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8847,7 +8774,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8859,7 +8786,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8867,7 +8794,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8963,7 +8890,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8990,7 +8917,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9006,7 +8933,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9309,7 +9236,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151257</v>
+        <v>20151253</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9333,7 +9260,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9349,7 +9276,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9365,7 +9292,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9381,7 +9308,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9397,7 +9324,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9412,9 +9339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9422,7 +9347,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9433,7 +9358,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9442,7 +9367,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9454,7 +9379,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9462,7 +9387,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9558,7 +9483,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9601,7 +9526,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9904,7 +9829,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151242</v>
+        <v>20151252</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9928,7 +9853,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9944,7 +9869,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9960,7 +9885,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9976,7 +9901,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9992,7 +9917,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10007,9 +9932,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10017,7 +9940,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10028,7 +9951,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10037,7 +9960,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10049,7 +9972,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10057,7 +9980,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10153,7 +10076,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10180,7 +10103,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10196,7 +10119,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10447,7 +10370,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10497,7 +10422,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154415</v>
+        <v>20151241</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10521,7 +10446,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10537,7 +10462,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10552,7 +10477,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10566,7 +10493,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10580,7 +10509,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10601,7 +10532,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10610,14 +10543,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10627,13 +10564,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10728,7 +10669,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10754,7 +10695,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10768,7 +10711,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11070,7 +11015,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151253</v>
+        <v>20151259</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11126,7 +11071,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11142,7 +11087,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11158,7 +11103,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11173,9 +11118,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11183,7 +11126,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11194,7 +11137,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11203,7 +11146,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11215,7 +11158,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11223,7 +11166,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11319,7 +11262,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11362,7 +11305,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11665,7 +11608,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151252</v>
+        <v>20151247</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11689,7 +11632,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11705,7 +11648,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11721,7 +11664,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11737,7 +11680,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11753,7 +11696,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11768,9 +11711,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11778,7 +11719,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11789,7 +11730,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11798,7 +11739,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11810,7 +11751,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11818,7 +11759,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11914,7 +11855,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11941,7 +11882,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11957,7 +11898,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12260,7 +12201,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151241</v>
+        <v>20151263</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12284,7 +12225,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12300,7 +12241,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12316,7 +12257,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12332,7 +12273,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12348,7 +12289,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12363,9 +12304,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12373,7 +12312,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12384,7 +12323,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12393,7 +12332,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12405,7 +12344,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12413,7 +12352,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12509,7 +12448,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12536,7 +12475,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12552,7 +12491,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12855,7 +12794,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151259</v>
+        <v>20151255</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12879,7 +12818,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12895,7 +12834,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12911,7 +12850,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12958,9 +12897,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12968,7 +12905,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12979,7 +12916,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12988,7 +12925,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13000,15 +12937,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>246</v>
+      <c r="H17" s="20">
+        <v>7439844</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13104,7 +13041,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13147,7 +13084,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13398,7 +13335,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -13448,7 +13387,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154562</v>
+        <v>20151265</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13472,7 +13411,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13488,7 +13427,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13503,7 +13442,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -13517,7 +13458,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>251</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -13531,7 +13474,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>252</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -13552,7 +13497,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -13561,14 +13508,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -13578,13 +13529,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -13679,7 +13634,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13705,7 +13660,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -13719,7 +13676,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>256</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14021,7 +13980,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151247</v>
+        <v>20151268</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14045,7 +14004,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14061,7 +14020,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14077,7 +14036,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14093,7 +14052,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14109,7 +14068,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14124,9 +14083,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14134,7 +14091,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14145,7 +14102,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14154,7 +14111,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14166,7 +14123,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14174,7 +14131,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14270,7 +14227,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14297,7 +14254,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14313,7 +14270,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14640,7 +14597,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14656,7 +14613,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14672,7 +14629,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14688,7 +14645,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14704,7 +14661,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14719,9 +14676,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14729,7 +14684,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14740,7 +14695,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14749,7 +14704,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14761,7 +14716,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14865,7 +14820,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14908,7 +14863,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15211,7 +15166,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151263</v>
+        <v>20151264</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15235,7 +15190,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15251,7 +15206,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15267,7 +15222,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15283,7 +15238,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15299,7 +15254,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15314,9 +15269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15324,7 +15277,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15335,7 +15288,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15344,7 +15297,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15356,7 +15309,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15364,7 +15317,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15460,7 +15413,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15503,7 +15456,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15806,7 +15759,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151255</v>
+        <v>20151245</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15830,7 +15783,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15846,7 +15799,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15862,7 +15815,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15878,7 +15831,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15894,7 +15847,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15909,9 +15862,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15919,7 +15870,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15930,7 +15881,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15939,7 +15890,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15951,15 +15902,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>7439844</v>
+      <c r="H17" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16055,7 +16006,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16098,7 +16049,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16301,2386 +16252,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151265</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151268</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2008</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151264</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151245</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -18704,7 +16275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18861,7 +16432,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18877,7 +16448,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18893,7 +16464,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18909,7 +16480,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18925,7 +16496,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18940,9 +16511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18950,7 +16519,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18961,7 +16530,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18970,7 +16539,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18982,7 +16551,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18990,7 +16559,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19086,7 +16655,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19129,7 +16698,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19456,7 +17025,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19472,7 +17041,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19488,7 +17057,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19504,7 +17073,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19520,7 +17089,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19535,9 +17104,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19545,7 +17112,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19556,7 +17123,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19565,7 +17132,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19577,7 +17144,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19585,7 +17152,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19681,7 +17248,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19724,7 +17291,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19975,7 +17542,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20025,7 +17594,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154561</v>
+        <v>20151249</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20049,7 +17618,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20065,7 +17634,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20080,7 +17649,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20094,7 +17665,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20108,7 +17681,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20129,7 +17704,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20138,14 +17715,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20155,13 +17736,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20282,7 +17867,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20296,7 +17883,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20598,7 +18187,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151249</v>
+        <v>20151250</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20622,7 +18211,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20638,7 +18227,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20654,7 +18243,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20670,7 +18259,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20686,7 +18275,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20701,9 +18290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20711,7 +18298,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20722,7 +18309,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20731,7 +18318,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20743,7 +18330,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20874,7 +18461,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21193,7 +18780,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151250</v>
+        <v>20151246</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21296,9 +18883,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21306,7 +18891,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21317,7 +18902,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21326,7 +18911,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21338,7 +18923,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21346,7 +18931,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21442,7 +19027,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21485,7 +19070,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21788,7 +19373,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151246</v>
+        <v>20151269</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21812,7 +19397,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21828,7 +19413,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21844,7 +19429,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21860,7 +19445,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21876,7 +19461,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21891,9 +19476,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21901,7 +19484,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21912,7 +19495,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21921,7 +19504,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21933,7 +19516,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21941,7 +19524,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22037,7 +19620,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22064,7 +19647,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22080,7 +19663,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
